--- a/tests/fixtures/orderforms/1508.33.taxprofiler.xlsx
+++ b/tests/fixtures/orderforms/1508.33.taxprofiler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A40ED12-D6D7-DE49-96D9-7D2D695ED5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9035A09-5846-B74A-BFEC-E16B587BD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5333,7 +5333,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5343,57 +5343,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5670,8 +5670,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.taxprofiler.xlsx
+++ b/tests/fixtures/orderforms/1508.33.taxprofiler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9035A09-5846-B74A-BFEC-E16B587BD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D0DC2-EC03-8042-8047-D04407727A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="767">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3433,6 +3433,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4205,7 +4208,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4674,6 +4677,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5670,8 +5676,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12057,9 +12063,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13120,8 +13124,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="176" t="s">
+        <v>766</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13192,9 +13196,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -71349,7 +71351,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rDw/UFZGhBzON0N9zMwQ7heNO970PkDHfK0AvGGDjyyON0WUCqefxr+djCleEXtqJkauoo31Oxogwh4FF78IDA==" saltValue="f/EIGWZMA0svBCt2TEn8DQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>

--- a/tests/fixtures/orderforms/1508.33.taxprofiler.xlsx
+++ b/tests/fixtures/orderforms/1508.33.taxprofiler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4597E1D-3664-8C41-AB8A-61491E462D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D8143D-8091-A24D-9140-6AB1477E4945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35440" yWindow="-12480" windowWidth="42700" windowHeight="25180" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="765">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3306,139 +3306,130 @@
     <t>This information is required for WGS, metagenome, panel- and exome analysis</t>
   </si>
   <si>
-    <t>sample1</t>
-  </si>
-  <si>
-    <t>case1</t>
-  </si>
-  <si>
-    <t>METLIFR030</t>
-  </si>
-  <si>
-    <t>sample2</t>
-  </si>
-  <si>
-    <t>case2</t>
-  </si>
-  <si>
-    <t>sample3</t>
-  </si>
-  <si>
-    <t>case3</t>
-  </si>
-  <si>
-    <t>sample4</t>
-  </si>
-  <si>
-    <t>case4</t>
-  </si>
-  <si>
-    <t>sample5</t>
-  </si>
-  <si>
-    <t>case5</t>
-  </si>
-  <si>
-    <t>sample6</t>
-  </si>
-  <si>
-    <t>case6</t>
-  </si>
-  <si>
-    <t>sample7</t>
-  </si>
-  <si>
-    <t>case7</t>
-  </si>
-  <si>
-    <t>METPCFR050</t>
-  </si>
-  <si>
-    <t>sample8</t>
-  </si>
-  <si>
-    <t>case8</t>
-  </si>
-  <si>
-    <t>sample9</t>
-  </si>
-  <si>
-    <t>case9</t>
-  </si>
-  <si>
-    <t>sample10</t>
-  </si>
-  <si>
-    <t>case10</t>
-  </si>
-  <si>
-    <t>sample11</t>
-  </si>
-  <si>
-    <t>case11</t>
-  </si>
-  <si>
-    <t>sample12</t>
-  </si>
-  <si>
-    <t>case12</t>
-  </si>
-  <si>
-    <t>sample13</t>
-  </si>
-  <si>
-    <t>case13</t>
-  </si>
-  <si>
-    <t>sample14</t>
-  </si>
-  <si>
-    <t>case14</t>
-  </si>
-  <si>
-    <t>sample15</t>
-  </si>
-  <si>
-    <t>case15</t>
-  </si>
-  <si>
-    <t>sample16</t>
-  </si>
-  <si>
-    <t>case16</t>
-  </si>
-  <si>
-    <t>sample17</t>
-  </si>
-  <si>
-    <t>case17</t>
-  </si>
-  <si>
-    <t>sample18</t>
-  </si>
-  <si>
-    <t>case18</t>
-  </si>
-  <si>
-    <t>sample19</t>
-  </si>
-  <si>
-    <t>case19</t>
-  </si>
-  <si>
-    <t>sample20</t>
-  </si>
-  <si>
-    <t>case20</t>
-  </si>
-  <si>
     <t>plate1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>taxpfsample1</t>
+  </si>
+  <si>
+    <t>taxpfsample2</t>
+  </si>
+  <si>
+    <t>taxpfsample3</t>
+  </si>
+  <si>
+    <t>taxpfsample4</t>
+  </si>
+  <si>
+    <t>taxpfsample5</t>
+  </si>
+  <si>
+    <t>taxpfsample6</t>
+  </si>
+  <si>
+    <t>taxpfsample7</t>
+  </si>
+  <si>
+    <t>taxpfsample8</t>
+  </si>
+  <si>
+    <t>taxpfsample9</t>
+  </si>
+  <si>
+    <t>taxpfsample10</t>
+  </si>
+  <si>
+    <t>taxpfsample11</t>
+  </si>
+  <si>
+    <t>taxpfsample12</t>
+  </si>
+  <si>
+    <t>taxpfsample13</t>
+  </si>
+  <si>
+    <t>taxpfsample14</t>
+  </si>
+  <si>
+    <t>taxpfsample15</t>
+  </si>
+  <si>
+    <t>taxpfsample16</t>
+  </si>
+  <si>
+    <t>taxpfsample17</t>
+  </si>
+  <si>
+    <t>taxpfsample18</t>
+  </si>
+  <si>
+    <t>taxpfsample19</t>
+  </si>
+  <si>
+    <t>taxpfsample20</t>
+  </si>
+  <si>
+    <t>taxpfcase1</t>
+  </si>
+  <si>
+    <t>taxpfcase2</t>
+  </si>
+  <si>
+    <t>taxpfcase3</t>
+  </si>
+  <si>
+    <t>taxpfcase4</t>
+  </si>
+  <si>
+    <t>taxpfcase5</t>
+  </si>
+  <si>
+    <t>taxpfcase6</t>
+  </si>
+  <si>
+    <t>taxpfcase7</t>
+  </si>
+  <si>
+    <t>taxpfcase8</t>
+  </si>
+  <si>
+    <t>taxpfcase9</t>
+  </si>
+  <si>
+    <t>taxpfcase10</t>
+  </si>
+  <si>
+    <t>taxpfcase11</t>
+  </si>
+  <si>
+    <t>taxpfcase12</t>
+  </si>
+  <si>
+    <t>taxpfcase13</t>
+  </si>
+  <si>
+    <t>taxpfcase14</t>
+  </si>
+  <si>
+    <t>taxpfcase15</t>
+  </si>
+  <si>
+    <t>taxpfcase16</t>
+  </si>
+  <si>
+    <t>taxpfcase17</t>
+  </si>
+  <si>
+    <t>taxpfcase18</t>
+  </si>
+  <si>
+    <t>taxpfcase19</t>
+  </si>
+  <si>
+    <t>taxpfcase20</t>
   </si>
 </sst>
 </file>
@@ -5674,8 +5665,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13361,7 +13352,7 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="65" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>69</v>
@@ -13373,10 +13364,10 @@
         <v>516</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>90</v>
@@ -13402,7 +13393,7 @@
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="70" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="Q15" s="85" t="s">
         <v>75</v>
@@ -13424,16 +13415,12 @@
       <c r="AE15" s="49"/>
       <c r="AF15" s="89"/>
       <c r="AG15" s="49"/>
-      <c r="AH15" s="83" t="s">
-        <v>495</v>
-      </c>
+      <c r="AH15" s="83"/>
       <c r="AI15" s="86"/>
-      <c r="AJ15" s="70" t="s">
-        <v>766</v>
-      </c>
+      <c r="AJ15" s="70"/>
       <c r="AK15" s="88"/>
       <c r="AL15" s="70" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14440,10 +14427,10 @@
         <v>516</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>90</v>
@@ -14487,9 +14474,7 @@
       <c r="AE16" s="49"/>
       <c r="AF16" s="89"/>
       <c r="AG16" s="49"/>
-      <c r="AH16" s="83" t="s">
-        <v>496</v>
-      </c>
+      <c r="AH16" s="83"/>
       <c r="AI16" s="86"/>
       <c r="AJ16" s="70"/>
       <c r="AK16" s="88"/>
@@ -15487,7 +15472,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>69</v>
@@ -15499,10 +15484,10 @@
         <v>516</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>90</v>
@@ -16544,7 +16529,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>69</v>
@@ -16556,10 +16541,10 @@
         <v>516</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>90</v>
@@ -17601,7 +17586,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>69</v>
@@ -17613,10 +17598,10 @@
         <v>516</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>90</v>
@@ -18658,7 +18643,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B20" s="66" t="s">
         <v>69</v>
@@ -18670,10 +18655,10 @@
         <v>516</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>90</v>
@@ -19715,7 +19700,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>69</v>
@@ -19727,10 +19712,10 @@
         <v>516</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>90</v>
@@ -20772,7 +20757,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>69</v>
@@ -20784,10 +20769,10 @@
         <v>516</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>90</v>
@@ -21829,7 +21814,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>69</v>
@@ -21841,10 +21826,10 @@
         <v>516</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>90</v>
@@ -22886,7 +22871,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>69</v>
@@ -22898,10 +22883,10 @@
         <v>516</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>90</v>
@@ -23943,7 +23928,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>69</v>
@@ -23955,10 +23940,10 @@
         <v>516</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>90</v>
@@ -25000,7 +24985,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>69</v>
@@ -25012,10 +24997,10 @@
         <v>516</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>90</v>
@@ -26057,7 +26042,7 @@
     </row>
     <row r="27" spans="1:1028" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>69</v>
@@ -26069,10 +26054,10 @@
         <v>516</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G27" s="68" t="s">
         <v>90</v>
@@ -26125,7 +26110,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>69</v>
@@ -26137,10 +26122,10 @@
         <v>516</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
       <c r="G28" s="68" t="s">
         <v>90</v>
@@ -27182,7 +27167,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>69</v>
@@ -27194,10 +27179,10 @@
         <v>516</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G29" s="68" t="s">
         <v>90</v>
@@ -28239,7 +28224,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="B30" s="66" t="s">
         <v>69</v>
@@ -28251,10 +28236,10 @@
         <v>516</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G30" s="68" t="s">
         <v>90</v>
@@ -29296,7 +29281,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>69</v>
@@ -29308,10 +29293,10 @@
         <v>516</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G31" s="68" t="s">
         <v>90</v>
@@ -30353,7 +30338,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>69</v>
@@ -30365,10 +30350,10 @@
         <v>516</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>738</v>
+        <v>609</v>
       </c>
       <c r="G32" s="68" t="s">
         <v>90</v>
@@ -31410,7 +31395,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>69</v>
@@ -31422,10 +31407,10 @@
         <v>516</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="G33" s="68" t="s">
         <v>90</v>
@@ -32467,7 +32452,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>69</v>
@@ -32482,7 +32467,7 @@
         <v>764</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="G34" s="68" t="s">
         <v>90</v>
@@ -71357,6 +71342,7 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="AH9:AL9"/>
   </mergeCells>
+  <phoneticPr fontId="41" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15:O394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
